--- a/com.kaleidoscope.core.aux.simpleexcel/Resources/new.xlsx
+++ b/com.kaleidoscope.core.aux.simpleexcel/Resources/new.xlsx
@@ -86,13 +86,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +424,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,7 +471,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -480,7 +480,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -493,5 +493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>